--- a/testdata/TestData.xlsx
+++ b/testdata/TestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jananaayagan.v\pmsmart\Jana\HybridSeleniumFramework\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3AC16F6-0E1C-43A0-8CFB-AD242FF1A433}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75F18A1C-E0D3-4832-9468-61601CA3F5FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8817791A-19BA-4090-BCEE-6282C94B43AE}"/>
   </bookViews>
@@ -36,18 +36,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>Username</t>
   </si>
   <si>
     <t>Password</t>
-  </si>
-  <si>
-    <t>jananaayagan.v</t>
-  </si>
-  <si>
-    <t>UmayalShachin@20</t>
   </si>
 </sst>
 </file>
@@ -399,10 +393,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CACC825-3776-4DA7-BF73-90897E52F383}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -419,14 +413,6 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
